--- a/pickpocket.xlsx
+++ b/pickpocket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="348" windowWidth="19812" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="348" windowWidth="19812" windowHeight="8940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="38">
   <si>
     <t>S</t>
   </si>
@@ -80,6 +80,57 @@
   </si>
   <si>
     <t>&lt;-</t>
+  </si>
+  <si>
+    <t>Skill Cards</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Disguise</t>
+  </si>
+  <si>
+    <t>Distraction</t>
+  </si>
+  <si>
+    <t>Remove a single suspision from your Mark.</t>
+  </si>
+  <si>
+    <t>Add this trap to your stash.</t>
+  </si>
+  <si>
+    <t>Bomb</t>
+  </si>
+  <si>
+    <t>Mouse Trap</t>
+  </si>
+  <si>
+    <t>Die Pack</t>
+  </si>
+  <si>
+    <t>Change your Mark.</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Peer Pressure</t>
+  </si>
+  <si>
+    <t>Play during opponents turn.  Distract Mark for one final lift.  If successful, Opponent takes first choice of items, you get second.  Rest are returned.</t>
+  </si>
+  <si>
+    <t>Play during opponents turn.  Force player to do one more lift attempt after they pass.</t>
+  </si>
+  <si>
+    <t>Only play after failing by suspision.  Reshuffle all current items lifted back into the Mark.  Go after same Mark again.</t>
+  </si>
+  <si>
+    <t>Avoid paying the Boss his cut for the current day's Events.</t>
+  </si>
+  <si>
+    <t>Skip Town</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1057,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="16">
-        <f>$B$31/+C$1</f>
+        <f t="shared" ref="C3:F7" si="0">$B$31/+C$1</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="D3" s="16">
-        <f>$B$31/+D$1</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="E3" s="16">
-        <f>$B$31/+E$1</f>
+        <f t="shared" si="0"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="F3" s="16">
-        <f>$B$31/+F$1</f>
+        <f t="shared" si="0"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="H3">
@@ -1079,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="J3" s="16">
-        <f>$I$31/+J$1</f>
+        <f t="shared" ref="J3:M9" si="1">$I$31/+J$1</f>
         <v>0.44</v>
       </c>
       <c r="K3" s="16">
-        <f>$I$31/+K$1</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="L3" s="16">
-        <f>$I$31/+L$1</f>
+        <f t="shared" si="1"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="M3" s="16">
-        <f>$I$31/+M$1</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O3">
@@ -1104,24 +1155,24 @@
         <v>0</v>
       </c>
       <c r="R3" s="15">
-        <f>$Q$31/R$1</f>
+        <f t="shared" ref="R3:R10" si="2">$Q$31/R$1</f>
         <v>0.6</v>
       </c>
       <c r="S3" s="15">
-        <f>$R$30/S$1</f>
+        <f t="shared" ref="S3:S17" si="3">$R$30/S$1</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="T3" s="15">
-        <f>$S$29/T$1</f>
+        <f t="shared" ref="T3:T17" si="4">$S$29/T$1</f>
         <v>0.56521739130434778</v>
       </c>
       <c r="U3" s="15">
-        <f>$Q$31/U$1</f>
+        <f t="shared" ref="U3:U10" si="5">$Q$31/U$1</f>
         <v>0.68181818181818177</v>
       </c>
       <c r="W3" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1132,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="16">
-        <f>$B$31/+C$1</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="D4" s="16">
-        <f>$B$31/+D$1</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="E4" s="16">
-        <f>$B$31/+E$1</f>
+        <f t="shared" si="0"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="F4" s="16">
-        <f>$B$31/+F$1</f>
+        <f t="shared" si="0"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="H4">
@@ -1154,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="16">
-        <f>$I$31/+J$1</f>
+        <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
       <c r="K4" s="16">
-        <f>$I$31/+K$1</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="L4" s="16">
-        <f>$I$31/+L$1</f>
+        <f t="shared" si="1"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="M4" s="16">
-        <f>$I$31/+M$1</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O4">
@@ -1179,24 +1230,24 @@
         <v>0</v>
       </c>
       <c r="R4" s="15">
-        <f>$Q$31/R$1</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="S4" s="15">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T4" s="15">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U4" s="15">
-        <f>$Q$31/U$1</f>
+        <f t="shared" si="5"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1207,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="16">
-        <f>$B$31/+C$1</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="D5" s="16">
-        <f>$B$31/+D$1</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="E5" s="16">
-        <f>$B$31/+E$1</f>
+        <f t="shared" si="0"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="F5" s="16">
-        <f>$B$31/+F$1</f>
+        <f t="shared" si="0"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="H5">
@@ -1229,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="16">
-        <f>$I$31/+J$1</f>
+        <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
       <c r="K5" s="16">
-        <f>$I$31/+K$1</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="L5" s="16">
-        <f>$I$31/+L$1</f>
+        <f t="shared" si="1"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="M5" s="16">
-        <f>$I$31/+M$1</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O5">
@@ -1254,24 +1305,24 @@
         <v>0</v>
       </c>
       <c r="R5" s="15">
-        <f>$Q$31/R$1</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="S5" s="15">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T5" s="15">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U5" s="15">
-        <f>$Q$31/U$1</f>
+        <f t="shared" si="5"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="W5" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1282,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="16">
-        <f>$B$31/+C$1</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="D6" s="16">
-        <f>$B$31/+D$1</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="E6" s="16">
-        <f>$B$31/+E$1</f>
+        <f t="shared" si="0"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="F6" s="16">
-        <f>$B$31/+F$1</f>
+        <f t="shared" si="0"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="H6">
@@ -1304,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="16">
-        <f>$I$31/+J$1</f>
+        <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
       <c r="K6" s="16">
-        <f>$I$31/+K$1</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="L6" s="16">
-        <f>$I$31/+L$1</f>
+        <f t="shared" si="1"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="M6" s="16">
-        <f>$I$31/+M$1</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O6">
@@ -1329,24 +1380,24 @@
         <v>0</v>
       </c>
       <c r="R6" s="15">
-        <f>$Q$31/R$1</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="S6" s="15">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T6" s="15">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U6" s="15">
-        <f>$Q$31/U$1</f>
+        <f t="shared" si="5"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="W6" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1357,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="16">
-        <f>$B$31/+C$1</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="D7" s="16">
-        <f>$B$31/+D$1</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="E7" s="16">
-        <f>$B$31/+E$1</f>
+        <f t="shared" si="0"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="F7" s="16">
-        <f>$B$31/+F$1</f>
+        <f t="shared" si="0"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="H7">
@@ -1379,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="16">
-        <f>$I$31/+J$1</f>
+        <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
       <c r="K7" s="16">
-        <f>$I$31/+K$1</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="L7" s="16">
-        <f>$I$31/+L$1</f>
+        <f t="shared" si="1"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="M7" s="16">
-        <f>$I$31/+M$1</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O7">
@@ -1404,24 +1455,24 @@
         <v>0</v>
       </c>
       <c r="R7" s="15">
-        <f>$Q$31/R$1</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="S7" s="15">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T7" s="15">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U7" s="15">
-        <f>$Q$31/U$1</f>
+        <f t="shared" si="5"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="W7" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1432,19 +1483,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="17">
-        <f>$C$31/+C$1</f>
+        <f t="shared" ref="C8:F9" si="6">$C$31/+C$1</f>
         <v>0.08</v>
       </c>
       <c r="D8" s="17">
-        <f>$C$31/+D$1</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E8" s="17">
-        <f>$C$31/+E$1</f>
+        <f t="shared" si="6"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="F8" s="17">
-        <f>$C$31/+F$1</f>
+        <f t="shared" si="6"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="H8">
@@ -1454,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="16">
-        <f>$I$31/+J$1</f>
+        <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
       <c r="K8" s="16">
-        <f>$I$31/+K$1</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="L8" s="16">
-        <f>$I$31/+L$1</f>
+        <f t="shared" si="1"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="M8" s="16">
-        <f>$I$31/+M$1</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O8">
@@ -1479,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="R8" s="15">
-        <f>$Q$31/R$1</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="S8" s="15">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T8" s="15">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U8" s="15">
-        <f>$Q$31/U$1</f>
+        <f t="shared" si="5"/>
         <v>0.68181818181818177</v>
       </c>
     </row>
@@ -1503,19 +1554,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="17">
-        <f>$C$31/+C$1</f>
+        <f t="shared" si="6"/>
         <v>0.08</v>
       </c>
       <c r="D9" s="17">
-        <f>$C$31/+D$1</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E9" s="17">
-        <f>$C$31/+E$1</f>
+        <f t="shared" si="6"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="F9" s="17">
-        <f>$C$31/+F$1</f>
+        <f t="shared" si="6"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="H9">
@@ -1525,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="16">
-        <f>$I$31/+J$1</f>
+        <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
       <c r="K9" s="16">
-        <f>$I$31/+K$1</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="L9" s="16">
-        <f>$I$31/+L$1</f>
+        <f t="shared" si="1"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="M9" s="16">
-        <f>$I$31/+M$1</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O9">
@@ -1550,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f>$Q$31/R$1</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="S9" s="15">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T9" s="15">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U9" s="15">
-        <f>$Q$31/U$1</f>
+        <f t="shared" si="5"/>
         <v>0.68181818181818177</v>
       </c>
     </row>
@@ -1571,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="7">
-        <f>$F$31/+C$1</f>
+        <f t="shared" ref="C10:F11" si="7">$F$31/+C$1</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="D10" s="7">
-        <f>$F$31/+D$1</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="E10" s="7">
-        <f>$F$31/+E$1</f>
+        <f t="shared" si="7"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="F10" s="7">
-        <f>$F$31/+F$1</f>
+        <f t="shared" si="7"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="H10">
@@ -1593,19 +1644,19 @@
         <v>5</v>
       </c>
       <c r="J10" s="17">
-        <f>$J$31/+J$1</f>
+        <f t="shared" ref="J10:M12" si="8">$J$31/+J$1</f>
         <v>0.16</v>
       </c>
       <c r="K10" s="17">
-        <f>$J$31/+K$1</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L10" s="17">
-        <f>$J$31/+L$1</f>
+        <f t="shared" si="8"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="M10" s="17">
-        <f>$J$31/+M$1</f>
+        <f t="shared" si="8"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="O10">
@@ -1618,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="R10" s="15">
-        <f>$Q$31/R$1</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="S10" s="15">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T10" s="15">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U10" s="15">
-        <f>$Q$31/U$1</f>
+        <f t="shared" si="5"/>
         <v>0.68181818181818177</v>
       </c>
     </row>
@@ -1639,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <f>$F$31/+C$1</f>
+        <f t="shared" si="7"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="D11" s="7">
-        <f>$F$31/+D$1</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="E11" s="7">
-        <f>$F$31/+E$1</f>
+        <f t="shared" si="7"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="F11" s="7">
-        <f>$F$31/+F$1</f>
+        <f t="shared" si="7"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="H11">
@@ -1661,19 +1712,19 @@
         <v>5</v>
       </c>
       <c r="J11" s="17">
-        <f>$J$31/+J$1</f>
+        <f t="shared" si="8"/>
         <v>0.16</v>
       </c>
       <c r="K11" s="17">
-        <f>$J$31/+K$1</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L11" s="17">
-        <f>$J$31/+L$1</f>
+        <f t="shared" si="8"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="M11" s="17">
-        <f>$J$31/+M$1</f>
+        <f t="shared" si="8"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="O11">
@@ -1690,11 +1741,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="S11" s="17">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T11" s="17">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U11" s="17">
@@ -1707,19 +1758,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" ref="C12:F26" si="9">$E$31/+C$1</f>
         <v>0.6</v>
       </c>
       <c r="D12" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E12" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F12" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H12">
@@ -1729,19 +1780,19 @@
         <v>5</v>
       </c>
       <c r="J12" s="17">
-        <f>$J$31/+J$1</f>
+        <f t="shared" si="8"/>
         <v>0.16</v>
       </c>
       <c r="K12" s="17">
-        <f>$J$31/+K$1</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L12" s="17">
-        <f>$J$31/+L$1</f>
+        <f t="shared" si="8"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="M12" s="17">
-        <f>$J$31/+M$1</f>
+        <f t="shared" si="8"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="O12">
@@ -1758,11 +1809,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="S12" s="17">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T12" s="17">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U12" s="17">
@@ -1775,19 +1826,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D13" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E13" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F13" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H13">
@@ -1801,15 +1852,15 @@
         <v>0.04</v>
       </c>
       <c r="K13" s="17">
-        <f t="shared" ref="K13:M13" si="0">$K$31/+K$1</f>
+        <f t="shared" ref="K13:M13" si="10">$K$31/+K$1</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="L13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="M13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="O13">
@@ -1826,11 +1877,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="S13" s="17">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T13" s="17">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U13" s="17">
@@ -1843,19 +1894,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D14" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E14" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F14" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H14">
@@ -1891,11 +1942,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="S14" s="17">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T14" s="17">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U14" s="17">
@@ -1908,38 +1959,38 @@
         <v>1</v>
       </c>
       <c r="C15" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D15" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E15" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F15" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="J15" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" ref="J15:M26" si="11">$L$31/+J$1</f>
         <v>0.48</v>
       </c>
       <c r="K15" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L15" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M15" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O15">
@@ -1956,11 +2007,11 @@
         <v>0.12</v>
       </c>
       <c r="S15" s="17">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T15" s="17">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U15" s="17">
@@ -1973,38 +2024,38 @@
         <v>1</v>
       </c>
       <c r="C16" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D16" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E16" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F16" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="J16" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K16" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L16" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M16" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O16">
@@ -2021,11 +2072,11 @@
         <v>0.12</v>
       </c>
       <c r="S16" s="17">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T16" s="17">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U16" s="17">
@@ -2038,38 +2089,38 @@
         <v>1</v>
       </c>
       <c r="C17" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D17" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E17" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F17" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="J17" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K17" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L17" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M17" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O17">
@@ -2086,11 +2137,11 @@
         <v>0.12</v>
       </c>
       <c r="S17" s="17">
-        <f>$R$30/S$1</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T17" s="17">
-        <f>$S$29/T$1</f>
+        <f t="shared" si="4"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="U17" s="17">
@@ -2103,38 +2154,38 @@
         <v>2</v>
       </c>
       <c r="C18" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D18" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E18" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F18" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="J18" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K18" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L18" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M18" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O18">
@@ -2144,19 +2195,19 @@
         <v>20</v>
       </c>
       <c r="R18" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" ref="R18:U26" si="12">$T$31/R$1</f>
         <v>0.36</v>
       </c>
       <c r="S18" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T18" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U18" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2165,38 +2216,38 @@
         <v>2</v>
       </c>
       <c r="C19" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D19" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E19" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F19" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="J19" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K19" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L19" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M19" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O19">
@@ -2206,19 +2257,19 @@
         <v>20</v>
       </c>
       <c r="R19" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="S19" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T19" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U19" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2227,38 +2278,38 @@
         <v>2</v>
       </c>
       <c r="C20" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D20" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E20" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F20" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="J20" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K20" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L20" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M20" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O20">
@@ -2268,19 +2319,19 @@
         <v>20</v>
       </c>
       <c r="R20" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="S20" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T20" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U20" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2289,38 +2340,38 @@
         <v>2</v>
       </c>
       <c r="C21" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D21" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E21" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F21" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H21">
         <v>4</v>
       </c>
       <c r="J21" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K21" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L21" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M21" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O21">
@@ -2330,19 +2381,19 @@
         <v>20</v>
       </c>
       <c r="R21" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="S21" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T21" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U21" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2351,38 +2402,38 @@
         <v>2</v>
       </c>
       <c r="C22" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D22" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E22" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F22" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H22">
         <v>4</v>
       </c>
       <c r="J22" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K22" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L22" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M22" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O22">
@@ -2392,19 +2443,19 @@
         <v>20</v>
       </c>
       <c r="R22" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="S22" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T22" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U22" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2413,38 +2464,38 @@
         <v>3</v>
       </c>
       <c r="C23" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D23" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E23" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F23" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="J23" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K23" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L23" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M23" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O23">
@@ -2454,19 +2505,19 @@
         <v>20</v>
       </c>
       <c r="R23" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="S23" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T23" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U23" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2475,38 +2526,38 @@
         <v>3</v>
       </c>
       <c r="C24" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D24" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E24" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F24" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H24">
         <v>5</v>
       </c>
       <c r="J24" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K24" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L24" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M24" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O24">
@@ -2516,19 +2567,19 @@
         <v>20</v>
       </c>
       <c r="R24" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="S24" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T24" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U24" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2537,38 +2588,38 @@
         <v>3</v>
       </c>
       <c r="C25" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D25" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E25" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F25" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H25">
         <v>5</v>
       </c>
       <c r="J25" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K25" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L25" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M25" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O25">
@@ -2578,19 +2629,19 @@
         <v>20</v>
       </c>
       <c r="R25" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="S25" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T25" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U25" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2599,38 +2650,38 @@
         <v>4</v>
       </c>
       <c r="C26" s="12">
-        <f>$E$31/+C$1</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="D26" s="12">
-        <f>$E$31/+D$1</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="E26" s="12">
-        <f>$E$31/+E$1</f>
+        <f t="shared" si="9"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="F26" s="12">
-        <f>$E$31/+F$1</f>
+        <f t="shared" si="9"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="H26">
         <v>6</v>
       </c>
       <c r="J26" s="13">
-        <f>$L$31/+J$1</f>
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
       <c r="K26" s="13">
-        <f>$L$31/+K$1</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="L26" s="13">
-        <f>$L$31/+L$1</f>
+        <f t="shared" si="11"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="M26" s="13">
-        <f>$L$31/+M$1</f>
+        <f t="shared" si="11"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="O26">
@@ -2640,19 +2691,19 @@
         <v>20</v>
       </c>
       <c r="R26" s="14">
-        <f>$T$31/R$1</f>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="S26" s="14">
-        <f>$T$31/S$1</f>
+        <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
       <c r="T26" s="14">
-        <f>$T$31/T$1</f>
+        <f t="shared" si="12"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="U26" s="14">
-        <f>$T$31/U$1</f>
+        <f t="shared" si="12"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -2854,12 +2905,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>